--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1926763845479758</v>
+        <v>0.1983215458382984</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.1926763845479758, 'ngram_match_score': 0.05811130405506037, 'weighted_ngram_match_score': 0.10612772143476433, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.2}</t>
+          <t>{'codebleu': 0.19832154583829836, 'ngram_match_score': 0.05811130405506037, 'weighted_ngram_match_score': 0.10612772143476433, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.22258064516129034}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1983215458382984</v>
+        <v>0.193482836160879</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.19832154583829836, 'ngram_match_score': 0.05811130405506037, 'weighted_ngram_match_score': 0.10612772143476433, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.22258064516129034}</t>
+          <t>{'codebleu': 0.19348283616087902, 'ngram_match_score': 0.05811130405506037, 'weighted_ngram_match_score': 0.10612772143476433, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.2032258064516129}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
